--- a/docs/PT1/PT1_13.08.2024_output.xlsx
+++ b/docs/PT1/PT1_13.08.2024_output.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K73"/>
+  <dimension ref="A1:N73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -437,52 +437,67 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Unnamed: 0.1</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>name</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>open</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>close</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>open_image</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>close_img</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>pos</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>traider</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>open_price</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>close_price</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>quity</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>percent</t>
         </is>
       </c>
     </row>
@@ -490,3490 +505,4136 @@
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="inlineStr">
         <is>
           <t>moex</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2024-06-14 16:05:29.360793</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>2024-06-14 16:08:51.910451</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
         <is>
           <t>VisualTraider</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="inlineStr">
         <is>
           <t>SBERP</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>1731088155.412481</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>1731088155.6677833</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731088155.412481.png</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731088155.6677833.png</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I3" t="n">
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K3" t="n">
         <v>280.01</v>
       </c>
-      <c r="J3" t="n">
+      <c r="L3" t="n">
         <v>280.4</v>
       </c>
-      <c r="K3" t="n">
+      <c r="M3" t="n">
         <v>0.3899999999999864</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0.14</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="inlineStr">
         <is>
           <t>SBERP</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>1731088156.742331</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>1731088156.8708632</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731088156.742331.png</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731088156.8708632.png</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I4" t="n">
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K4" t="n">
         <v>280.01</v>
       </c>
-      <c r="J4" t="n">
+      <c r="L4" t="n">
         <v>280.53</v>
       </c>
-      <c r="K4" t="n">
+      <c r="M4" t="n">
         <v>0.5199999999999818</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0.19</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="inlineStr">
         <is>
           <t>SBERP</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>1731088160.8124845</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>1731088161.699285</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731088160.8124845.png</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731088161.699285.png</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I5" t="n">
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K5" t="n">
         <v>280.6</v>
       </c>
-      <c r="J5" t="n">
+      <c r="L5" t="n">
         <v>280.39</v>
       </c>
-      <c r="K5" t="n">
+      <c r="M5" t="n">
         <v>-0.2100000000000364</v>
+      </c>
+      <c r="N5" t="n">
+        <v>-0.06999999999999999</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="inlineStr">
         <is>
           <t>SBERP</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>1731088162.677103</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>1731088163.2656074</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731088162.677103.png</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731088163.2656074.png</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I6" t="n">
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K6" t="n">
         <v>280.13</v>
       </c>
-      <c r="J6" t="n">
+      <c r="L6" t="n">
         <v>280.39</v>
       </c>
-      <c r="K6" t="n">
+      <c r="M6" t="n">
         <v>0.2599999999999909</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0.09</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>5</v>
+      </c>
+      <c r="D7" t="inlineStr">
         <is>
           <t>SBERP</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>1731088163.8135862</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>1731088164.2437873</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731088163.8135862.png</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731088164.2437873.png</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I7" t="n">
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K7" t="n">
         <v>280.01</v>
       </c>
-      <c r="J7" t="n">
+      <c r="L7" t="n">
         <v>280.08</v>
       </c>
-      <c r="K7" t="n">
+      <c r="M7" t="n">
         <v>0.06999999999999318</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0.02</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="n">
+        <v>6</v>
+      </c>
+      <c r="D8" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>1731088175.6969373</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>1731088175.8843482</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>./test_images/SBER1731088175.6969373.png</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>./test_images/SBER1731088175.8843482.png</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I8" t="n">
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K8" t="n">
         <v>280.01</v>
       </c>
-      <c r="J8" t="n">
+      <c r="L8" t="n">
         <v>280.4</v>
       </c>
-      <c r="K8" t="n">
+      <c r="M8" t="n">
         <v>0.3899999999999864</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0.14</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="n">
+        <v>7</v>
+      </c>
+      <c r="D9" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>1731088176.7707973</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>1731088176.8957412</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>./test_images/SBER1731088176.7707973.png</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>./test_images/SBER1731088176.8957412.png</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I9" t="n">
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K9" t="n">
         <v>280.01</v>
       </c>
-      <c r="J9" t="n">
+      <c r="L9" t="n">
         <v>280.53</v>
       </c>
-      <c r="K9" t="n">
+      <c r="M9" t="n">
         <v>0.5199999999999818</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0.19</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B10" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" t="n">
+        <v>8</v>
+      </c>
+      <c r="D10" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>1731088180.3551419</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>1731088181.0437284</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>./test_images/SBER1731088180.3551419.png</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t>./test_images/SBER1731088181.0437284.png</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I10" t="n">
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
         <v>280.6</v>
       </c>
-      <c r="J10" t="n">
+      <c r="L10" t="n">
         <v>280.39</v>
       </c>
-      <c r="K10" t="n">
+      <c r="M10" t="n">
         <v>-0.2100000000000364</v>
+      </c>
+      <c r="N10" t="n">
+        <v>-0.06999999999999999</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B11" t="n">
+        <v>9</v>
+      </c>
+      <c r="C11" t="n">
+        <v>9</v>
+      </c>
+      <c r="D11" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>1731088181.9778445</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>1731088182.4957423</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>./test_images/SBER1731088181.9778445.png</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="H11" t="inlineStr">
         <is>
           <t>./test_images/SBER1731088182.4957423.png</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I11" t="n">
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
         <v>280.13</v>
       </c>
-      <c r="J11" t="n">
+      <c r="L11" t="n">
         <v>280.39</v>
       </c>
-      <c r="K11" t="n">
+      <c r="M11" t="n">
         <v>0.2599999999999909</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0.09</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B12" t="n">
+        <v>10</v>
+      </c>
+      <c r="C12" t="n">
+        <v>10</v>
+      </c>
+      <c r="D12" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>1731088182.9927776</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>1731088183.3988218</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>./test_images/SBER1731088182.9927776.png</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="H12" t="inlineStr">
         <is>
           <t>./test_images/SBER1731088183.3988218.png</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I12" t="n">
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K12" t="n">
         <v>280.01</v>
       </c>
-      <c r="J12" t="n">
+      <c r="L12" t="n">
         <v>280.08</v>
       </c>
-      <c r="K12" t="n">
+      <c r="M12" t="n">
         <v>0.06999999999999318</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0.02</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="B13" t="n">
+        <v>11</v>
+      </c>
+      <c r="C13" t="n">
+        <v>11</v>
+      </c>
+      <c r="D13" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>1731088193.477003</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>1731088193.6957052</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>./test_images/SBER1731088193.477003.png</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="H13" t="inlineStr">
         <is>
           <t>./test_images/SBER1731088193.6957052.png</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I13" t="n">
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
         <v>280.98</v>
       </c>
-      <c r="J13" t="n">
+      <c r="L13" t="n">
         <v>281.44</v>
       </c>
-      <c r="K13" t="n">
+      <c r="M13" t="n">
         <v>0.4599999999999795</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0.16</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="B14" t="n">
+        <v>12</v>
+      </c>
+      <c r="C14" t="n">
+        <v>12</v>
+      </c>
+      <c r="D14" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>1731088194.7780695</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>1731088194.9186606</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>./test_images/SBER1731088194.7780695.png</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="H14" t="inlineStr">
         <is>
           <t>./test_images/SBER1731088194.9186606.png</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I14" t="n">
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
         <v>281.03</v>
       </c>
-      <c r="J14" t="n">
+      <c r="L14" t="n">
         <v>281.62</v>
       </c>
-      <c r="K14" t="n">
+      <c r="M14" t="n">
         <v>0.5900000000000318</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0.21</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="B15" t="n">
+        <v>13</v>
+      </c>
+      <c r="C15" t="n">
+        <v>13</v>
+      </c>
+      <c r="D15" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>1731088199.2790627</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>1731088199.894666</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>./test_images/SBER1731088199.2790627.png</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="H15" t="inlineStr">
         <is>
           <t>./test_images/SBER1731088199.894666.png</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I15" t="n">
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K15" t="n">
         <v>281.53</v>
       </c>
-      <c r="J15" t="n">
+      <c r="L15" t="n">
         <v>281.63</v>
       </c>
-      <c r="K15" t="n">
+      <c r="M15" t="n">
         <v>0.1000000000000227</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0.04</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="B16" t="n">
+        <v>14</v>
+      </c>
+      <c r="C16" t="n">
+        <v>14</v>
+      </c>
+      <c r="D16" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>1731088200.7967849</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>1731088201.5270877</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>./test_images/SBER1731088200.7967849.png</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="H16" t="inlineStr">
         <is>
           <t>./test_images/SBER1731088201.5270877.png</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I16" t="n">
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
         <v>281.27</v>
       </c>
-      <c r="J16" t="n">
+      <c r="L16" t="n">
         <v>281.49</v>
       </c>
-      <c r="K16" t="n">
+      <c r="M16" t="n">
         <v>0.2200000000000273</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0.08</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="B17" t="n">
+        <v>15</v>
+      </c>
+      <c r="C17" t="n">
+        <v>15</v>
+      </c>
+      <c r="D17" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>1731088202.1905932</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>1731088203.078043</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>./test_images/SBER1731088202.1905932.png</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="H17" t="inlineStr">
         <is>
           <t>./test_images/SBER1731088203.078043.png</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I17" t="n">
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
         <v>281.01</v>
       </c>
-      <c r="J17" t="n">
+      <c r="L17" t="n">
         <v>281.1</v>
       </c>
-      <c r="K17" t="n">
+      <c r="M17" t="n">
         <v>0.09000000000003183</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0.03</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="B18" t="n">
+        <v>16</v>
+      </c>
+      <c r="C18" t="n">
+        <v>16</v>
+      </c>
+      <c r="D18" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>1731088203.4092836</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>1731088203.596739</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>./test_images/SBER1731088203.4092836.png</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="H18" t="inlineStr">
         <is>
           <t>./test_images/SBER1731088203.596739.png</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I18" t="n">
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
         <v>280.52</v>
       </c>
-      <c r="J18" t="n">
+      <c r="L18" t="n">
         <v>280.92</v>
       </c>
-      <c r="K18" t="n">
+      <c r="M18" t="n">
         <v>0.4000000000000341</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0.14</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="B19" t="n">
+        <v>17</v>
+      </c>
+      <c r="C19" t="n">
+        <v>17</v>
+      </c>
+      <c r="D19" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>1731088216.124875</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>1731088216.394675</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731088216.124875.png</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="H19" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731088216.394675.png</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I19" t="n">
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
         <v>129.16</v>
       </c>
-      <c r="J19" t="n">
+      <c r="L19" t="n">
         <v>129.32</v>
       </c>
-      <c r="K19" t="n">
+      <c r="M19" t="n">
         <v>0.1599999999999966</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0.12</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="B20" t="n">
+        <v>18</v>
+      </c>
+      <c r="C20" t="n">
+        <v>18</v>
+      </c>
+      <c r="D20" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>1731088223.4208608</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>1731088224.4956353</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731088223.4208608.png</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="H20" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731088224.4956353.png</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I20" t="n">
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
         <v>129.7</v>
       </c>
-      <c r="J20" t="n">
+      <c r="L20" t="n">
         <v>129.87</v>
       </c>
-      <c r="K20" t="n">
+      <c r="M20" t="n">
         <v>0.1700000000000159</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0.13</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="B21" t="n">
+        <v>19</v>
+      </c>
+      <c r="C21" t="n">
+        <v>19</v>
+      </c>
+      <c r="D21" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>1731088229.3050466</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>1731088229.6331165</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731088229.3050466.png</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="H21" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731088229.6331165.png</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I21" t="n">
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K21" t="n">
         <v>129.89</v>
       </c>
-      <c r="J21" t="n">
+      <c r="L21" t="n">
         <v>130.14</v>
       </c>
-      <c r="K21" t="n">
+      <c r="M21" t="n">
         <v>0.25</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0.19</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="B22" t="inlineStr">
+      <c r="B22" t="n">
+        <v>20</v>
+      </c>
+      <c r="C22" t="n">
+        <v>20</v>
+      </c>
+      <c r="D22" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>1731088233.3837922</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>1731088233.9184825</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731088233.3837922.png</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="H22" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731088233.9184825.png</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I22" t="n">
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
         <v>129.94</v>
       </c>
-      <c r="J22" t="n">
+      <c r="L22" t="n">
         <v>130.13</v>
       </c>
-      <c r="K22" t="n">
+      <c r="M22" t="n">
         <v>0.1899999999999977</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0.15</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="B23" t="inlineStr">
+      <c r="B23" t="n">
+        <v>21</v>
+      </c>
+      <c r="C23" t="n">
+        <v>21</v>
+      </c>
+      <c r="D23" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>1731088234.5507593</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr"/>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>./test_images/GAZP1731088234.5507593.png</t>
         </is>
       </c>
       <c r="F23" t="inlineStr"/>
       <c r="G23" t="inlineStr">
         <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I23" t="n">
+          <t>./test_images/GAZP1731088234.5507593.png</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr"/>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
         <v>129.92</v>
       </c>
-      <c r="J23" t="n">
-        <v>129.92</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0</v>
+      <c r="L23" t="n">
+        <v>129.99</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0.0700000000000216</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0.05</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="B24" t="inlineStr">
+      <c r="B24" t="n">
+        <v>22</v>
+      </c>
+      <c r="C24" t="n">
+        <v>22</v>
+      </c>
+      <c r="D24" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>1731088235.374796</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>1731088236.2296646</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731088235.374796.png</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="H24" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731088236.2296646.png</t>
         </is>
       </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I24" t="n">
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
         <v>6441</v>
       </c>
-      <c r="J24" t="n">
+      <c r="L24" t="n">
         <v>6430</v>
       </c>
-      <c r="K24" t="n">
+      <c r="M24" t="n">
         <v>-11</v>
+      </c>
+      <c r="N24" t="n">
+        <v>-0.17</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="B25" t="inlineStr">
+      <c r="B25" t="n">
+        <v>23</v>
+      </c>
+      <c r="C25" t="n">
+        <v>23</v>
+      </c>
+      <c r="D25" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>1731088237.193371</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>1731088237.5717733</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731088237.193371.png</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
+      <c r="H25" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731088237.5717733.png</t>
         </is>
       </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I25" t="n">
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K25" t="n">
         <v>6420.5</v>
       </c>
-      <c r="J25" t="n">
+      <c r="L25" t="n">
         <v>6428</v>
       </c>
-      <c r="K25" t="n">
+      <c r="M25" t="n">
         <v>7.5</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0.12</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="B26" t="inlineStr">
+      <c r="B26" t="n">
+        <v>24</v>
+      </c>
+      <c r="C26" t="n">
+        <v>24</v>
+      </c>
+      <c r="D26" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t>1731088243.251816</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
+      <c r="F26" t="inlineStr">
         <is>
           <t>1731088243.7122347</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
+      <c r="G26" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731088243.251816.png</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
+      <c r="H26" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731088243.7122347.png</t>
         </is>
       </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I26" t="n">
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K26" t="n">
         <v>6428</v>
       </c>
-      <c r="J26" t="n">
+      <c r="L26" t="n">
         <v>6432.5</v>
       </c>
-      <c r="K26" t="n">
+      <c r="M26" t="n">
         <v>4.5</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0.06999999999999999</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="B27" t="inlineStr">
+      <c r="B27" t="n">
+        <v>25</v>
+      </c>
+      <c r="C27" t="n">
+        <v>25</v>
+      </c>
+      <c r="D27" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
+      <c r="E27" t="inlineStr">
         <is>
           <t>1731088244.50181</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
+      <c r="F27" t="inlineStr">
         <is>
           <t>1731088245.5662987</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
+      <c r="G27" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731088244.50181.png</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
+      <c r="H27" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731088245.5662987.png</t>
         </is>
       </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I27" t="n">
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
         <v>6426</v>
       </c>
-      <c r="J27" t="n">
+      <c r="L27" t="n">
         <v>6419</v>
       </c>
-      <c r="K27" t="n">
+      <c r="M27" t="n">
         <v>-7</v>
+      </c>
+      <c r="N27" t="n">
+        <v>-0.11</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="B28" t="inlineStr">
+      <c r="B28" t="n">
+        <v>26</v>
+      </c>
+      <c r="C28" t="n">
+        <v>26</v>
+      </c>
+      <c r="D28" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
+      <c r="E28" t="inlineStr">
         <is>
           <t>1731088267.6462991</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
+      <c r="F28" t="inlineStr">
         <is>
           <t>1731088267.9806535</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
+      <c r="G28" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731088267.6462991.png</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
+      <c r="H28" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731088267.9806535.png</t>
         </is>
       </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I28" t="n">
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K28" t="n">
         <v>502.25</v>
       </c>
-      <c r="J28" t="n">
+      <c r="L28" t="n">
         <v>502.7</v>
       </c>
-      <c r="K28" t="n">
+      <c r="M28" t="n">
         <v>0.4499999999999886</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0.09</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="B29" t="inlineStr">
+      <c r="B29" t="n">
+        <v>27</v>
+      </c>
+      <c r="C29" t="n">
+        <v>27</v>
+      </c>
+      <c r="D29" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
+      <c r="E29" t="inlineStr">
         <is>
           <t>1731088275.6135669</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
+      <c r="F29" t="inlineStr">
         <is>
           <t>1731088275.98594</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
+      <c r="G29" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731088275.6135669.png</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
+      <c r="H29" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731088275.98594.png</t>
         </is>
       </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I29" t="n">
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K29" t="n">
         <v>502.3</v>
       </c>
-      <c r="J29" t="n">
+      <c r="L29" t="n">
         <v>502.85</v>
       </c>
-      <c r="K29" t="n">
+      <c r="M29" t="n">
         <v>0.5500000000000114</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0.11</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="B30" t="inlineStr">
+      <c r="B30" t="n">
+        <v>28</v>
+      </c>
+      <c r="C30" t="n">
+        <v>28</v>
+      </c>
+      <c r="D30" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
+      <c r="E30" t="inlineStr">
         <is>
           <t>1731088279.6423867</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
+      <c r="F30" t="inlineStr">
         <is>
           <t>1731088280.4165688</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
+      <c r="G30" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731088279.6423867.png</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
+      <c r="H30" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731088280.4165688.png</t>
         </is>
       </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I30" t="n">
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K30" t="n">
         <v>227.07</v>
       </c>
-      <c r="J30" t="n">
+      <c r="L30" t="n">
         <v>227.21</v>
       </c>
-      <c r="K30" t="n">
+      <c r="M30" t="n">
         <v>0.1400000000000148</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0.06</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="B31" t="inlineStr">
+      <c r="B31" t="n">
+        <v>29</v>
+      </c>
+      <c r="C31" t="n">
+        <v>29</v>
+      </c>
+      <c r="D31" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
+      <c r="E31" t="inlineStr">
         <is>
           <t>1731088298.4463706</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
+      <c r="F31" t="inlineStr">
         <is>
           <t>1731088299.880676</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
+      <c r="G31" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731088298.4463706.png</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
+      <c r="H31" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731088299.880676.png</t>
         </is>
       </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I31" t="n">
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K31" t="n">
         <v>1037</v>
       </c>
-      <c r="J31" t="n">
+      <c r="L31" t="n">
         <v>1033.6</v>
       </c>
-      <c r="K31" t="n">
+      <c r="M31" t="n">
         <v>-3.400000000000091</v>
+      </c>
+      <c r="N31" t="n">
+        <v>-0.33</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="B32" t="inlineStr">
+      <c r="B32" t="n">
+        <v>30</v>
+      </c>
+      <c r="C32" t="n">
+        <v>30</v>
+      </c>
+      <c r="D32" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
+      <c r="E32" t="inlineStr">
         <is>
           <t>1731088300.2465777</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr">
+      <c r="F32" t="inlineStr">
         <is>
           <t>1731088300.7455802</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
+      <c r="G32" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731088300.2465777.png</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr">
+      <c r="H32" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731088300.7455802.png</t>
         </is>
       </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I32" t="n">
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K32" t="n">
         <v>1032.6</v>
       </c>
-      <c r="J32" t="n">
+      <c r="L32" t="n">
         <v>1034.4</v>
       </c>
-      <c r="K32" t="n">
+      <c r="M32" t="n">
         <v>1.800000000000182</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0.17</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
-      <c r="B33" t="inlineStr">
+      <c r="B33" t="n">
+        <v>31</v>
+      </c>
+      <c r="C33" t="n">
+        <v>31</v>
+      </c>
+      <c r="D33" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
+      <c r="E33" t="inlineStr">
         <is>
           <t>1731088308.4078279</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
+      <c r="F33" t="inlineStr">
         <is>
           <t>1731088309.0056775</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr">
+      <c r="G33" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731088308.4078279.png</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr">
+      <c r="H33" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731088309.0056775.png</t>
         </is>
       </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I33" t="n">
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K33" t="n">
         <v>1040.6</v>
       </c>
-      <c r="J33" t="n">
+      <c r="L33" t="n">
         <v>1042</v>
       </c>
-      <c r="K33" t="n">
+      <c r="M33" t="n">
         <v>1.400000000000091</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0.13</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="B34" t="inlineStr">
+      <c r="B34" t="n">
+        <v>32</v>
+      </c>
+      <c r="C34" t="n">
+        <v>32</v>
+      </c>
+      <c r="D34" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
+      <c r="E34" t="inlineStr">
         <is>
           <t>1731088317.2367406</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr">
+      <c r="F34" t="inlineStr">
         <is>
           <t>1731088317.716952</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr">
+      <c r="G34" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731088317.2367406.png</t>
         </is>
       </c>
-      <c r="F34" t="inlineStr">
+      <c r="H34" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731088317.716952.png</t>
         </is>
       </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I34" t="n">
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K34" t="n">
         <v>1050.6</v>
       </c>
-      <c r="J34" t="n">
+      <c r="L34" t="n">
         <v>1052.2</v>
       </c>
-      <c r="K34" t="n">
+      <c r="M34" t="n">
         <v>1.600000000000136</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0.15</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="B35" t="inlineStr">
+      <c r="B35" t="n">
+        <v>33</v>
+      </c>
+      <c r="C35" t="n">
+        <v>33</v>
+      </c>
+      <c r="D35" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
+      <c r="E35" t="inlineStr">
         <is>
           <t>1731088328.0044186</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr">
+      <c r="F35" t="inlineStr">
         <is>
           <t>1731088329.9006166</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr">
+      <c r="G35" t="inlineStr">
         <is>
           <t>./test_images/CNY1731088328.0044186.png</t>
         </is>
       </c>
-      <c r="F35" t="inlineStr">
+      <c r="H35" t="inlineStr">
         <is>
           <t>./test_images/CNY1731088329.9006166.png</t>
         </is>
       </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I35" t="n">
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K35" t="n">
         <v>12.163</v>
       </c>
-      <c r="J35" t="n">
+      <c r="L35" t="n">
         <v>12.148</v>
       </c>
-      <c r="K35" t="n">
+      <c r="M35" t="n">
         <v>-0.01500000000000057</v>
+      </c>
+      <c r="N35" t="n">
+        <v>-0.12</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="B36" t="inlineStr">
+      <c r="B36" t="n">
+        <v>34</v>
+      </c>
+      <c r="C36" t="n">
+        <v>34</v>
+      </c>
+      <c r="D36" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
+      <c r="E36" t="inlineStr">
         <is>
           <t>1731088335.666004</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr">
+      <c r="F36" t="inlineStr">
         <is>
           <t>1731088336.052658</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr">
+      <c r="G36" t="inlineStr">
         <is>
           <t>./test_images/CNY1731088335.666004.png</t>
         </is>
       </c>
-      <c r="F36" t="inlineStr">
+      <c r="H36" t="inlineStr">
         <is>
           <t>./test_images/CNY1731088336.052658.png</t>
         </is>
       </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I36" t="n">
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K36" t="n">
         <v>12.139</v>
       </c>
-      <c r="J36" t="n">
+      <c r="L36" t="n">
         <v>12.156</v>
       </c>
-      <c r="K36" t="n">
+      <c r="M36" t="n">
         <v>0.01700000000000124</v>
+      </c>
+      <c r="N36" t="n">
+        <v>0.14</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="B37" t="inlineStr">
+      <c r="B37" t="n">
+        <v>35</v>
+      </c>
+      <c r="C37" t="n">
+        <v>35</v>
+      </c>
+      <c r="D37" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
+      <c r="E37" t="inlineStr">
         <is>
           <t>1731088340.195349</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr">
+      <c r="F37" t="inlineStr">
         <is>
           <t>1731088340.6053793</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr">
+      <c r="G37" t="inlineStr">
         <is>
           <t>./test_images/CNY1731088340.195349.png</t>
         </is>
       </c>
-      <c r="F37" t="inlineStr">
+      <c r="H37" t="inlineStr">
         <is>
           <t>./test_images/CNY1731088340.6053793.png</t>
         </is>
       </c>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I37" t="n">
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K37" t="n">
         <v>12.163</v>
       </c>
-      <c r="J37" t="n">
+      <c r="L37" t="n">
         <v>12.169</v>
       </c>
-      <c r="K37" t="n">
+      <c r="M37" t="n">
         <v>0.006000000000000227</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0.05</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="B38" t="inlineStr">
+      <c r="B38" t="n">
+        <v>36</v>
+      </c>
+      <c r="C38" t="n">
+        <v>36</v>
+      </c>
+      <c r="D38" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr">
+      <c r="E38" t="inlineStr">
         <is>
           <t>1731088342.0952194</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr">
+      <c r="F38" t="inlineStr">
         <is>
           <t>1731088342.5887053</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr">
+      <c r="G38" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731088342.0952194.png</t>
         </is>
       </c>
-      <c r="F38" t="inlineStr">
+      <c r="H38" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731088342.5887053.png</t>
         </is>
       </c>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I38" t="n">
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K38" t="n">
         <v>125.32</v>
       </c>
-      <c r="J38" t="n">
+      <c r="L38" t="n">
         <v>125.4</v>
       </c>
-      <c r="K38" t="n">
+      <c r="M38" t="n">
         <v>0.08000000000001251</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0.06</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="B39" t="inlineStr">
+      <c r="B39" t="n">
+        <v>37</v>
+      </c>
+      <c r="C39" t="n">
+        <v>37</v>
+      </c>
+      <c r="D39" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr">
+      <c r="E39" t="inlineStr">
         <is>
           <t>1731088355.7198925</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr">
+      <c r="F39" t="inlineStr">
         <is>
           <t>1731088355.8703</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr">
+      <c r="G39" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731088355.7198925.png</t>
         </is>
       </c>
-      <c r="F39" t="inlineStr">
+      <c r="H39" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731088355.8703.png</t>
         </is>
       </c>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I39" t="n">
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K39" t="n">
         <v>128.68</v>
       </c>
-      <c r="J39" t="n">
+      <c r="L39" t="n">
         <v>128.92</v>
       </c>
-      <c r="K39" t="n">
+      <c r="M39" t="n">
         <v>0.2399999999999807</v>
+      </c>
+      <c r="N39" t="n">
+        <v>0.19</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
-      <c r="B40" t="inlineStr">
+      <c r="B40" t="n">
+        <v>38</v>
+      </c>
+      <c r="C40" t="n">
+        <v>38</v>
+      </c>
+      <c r="D40" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr">
+      <c r="E40" t="inlineStr">
         <is>
           <t>1731088356.7961903</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr">
+      <c r="F40" t="inlineStr">
         <is>
           <t>1731088357.257925</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr">
+      <c r="G40" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731088356.7961903.png</t>
         </is>
       </c>
-      <c r="F40" t="inlineStr">
+      <c r="H40" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731088357.257925.png</t>
         </is>
       </c>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I40" t="n">
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K40" t="n">
         <v>128.78</v>
       </c>
-      <c r="J40" t="n">
+      <c r="L40" t="n">
         <v>128.96</v>
       </c>
-      <c r="K40" t="n">
+      <c r="M40" t="n">
         <v>0.1800000000000068</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0.14</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
-      <c r="B41" t="inlineStr">
+      <c r="B41" t="n">
+        <v>39</v>
+      </c>
+      <c r="C41" t="n">
+        <v>39</v>
+      </c>
+      <c r="D41" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C41" t="inlineStr">
+      <c r="E41" t="inlineStr">
         <is>
           <t>1731088359.4808216</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr">
+      <c r="F41" t="inlineStr">
         <is>
           <t>1731088361.3915238</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr">
+      <c r="G41" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731088359.4808216.png</t>
         </is>
       </c>
-      <c r="F41" t="inlineStr">
+      <c r="H41" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731088361.3915238.png</t>
         </is>
       </c>
-      <c r="G41" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I41" t="n">
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K41" t="n">
         <v>128.78</v>
       </c>
-      <c r="J41" t="n">
+      <c r="L41" t="n">
         <v>128.5</v>
       </c>
-      <c r="K41" t="n">
+      <c r="M41" t="n">
         <v>-0.2800000000000011</v>
+      </c>
+      <c r="N41" t="n">
+        <v>-0.22</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="B42" t="inlineStr">
+      <c r="B42" t="n">
+        <v>40</v>
+      </c>
+      <c r="C42" t="n">
+        <v>40</v>
+      </c>
+      <c r="D42" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C42" t="inlineStr">
+      <c r="E42" t="inlineStr">
         <is>
           <t>1731088362.10154</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr"/>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>./test_images/GMKN1731088362.10154.png</t>
         </is>
       </c>
       <c r="F42" t="inlineStr"/>
       <c r="G42" t="inlineStr">
         <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I42" t="n">
+          <t>./test_images/GMKN1731088362.10154.png</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr"/>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K42" t="n">
         <v>128.2</v>
       </c>
-      <c r="J42" t="n">
-        <v>128.2</v>
-      </c>
-      <c r="K42" t="n">
-        <v>0</v>
+      <c r="L42" t="n">
+        <v>128</v>
+      </c>
+      <c r="M42" t="n">
+        <v>-0.1999999999999886</v>
+      </c>
+      <c r="N42" t="n">
+        <v>-0.16</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
-      <c r="B43" t="inlineStr">
+      <c r="B43" t="n">
+        <v>41</v>
+      </c>
+      <c r="C43" t="n">
+        <v>41</v>
+      </c>
+      <c r="D43" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C43" t="inlineStr">
+      <c r="E43" t="inlineStr">
         <is>
           <t>1731088380.9645066</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr">
+      <c r="F43" t="inlineStr">
         <is>
           <t>1731088382.9842572</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr">
+      <c r="G43" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731088380.9645066.png</t>
         </is>
       </c>
-      <c r="F43" t="inlineStr">
+      <c r="H43" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731088382.9842572.png</t>
         </is>
       </c>
-      <c r="G43" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I43" t="n">
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K43" t="n">
         <v>165.24</v>
       </c>
-      <c r="J43" t="n">
+      <c r="L43" t="n">
         <v>164.88</v>
       </c>
-      <c r="K43" t="n">
+      <c r="M43" t="n">
         <v>-0.3600000000000136</v>
+      </c>
+      <c r="N43" t="n">
+        <v>-0.22</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="B44" t="inlineStr">
+      <c r="B44" t="n">
+        <v>42</v>
+      </c>
+      <c r="C44" t="n">
+        <v>42</v>
+      </c>
+      <c r="D44" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C44" t="inlineStr">
+      <c r="E44" t="inlineStr">
         <is>
           <t>1731088385.7139723</t>
         </is>
       </c>
-      <c r="D44" t="inlineStr">
+      <c r="F44" t="inlineStr">
         <is>
           <t>1731088386.104648</t>
         </is>
       </c>
-      <c r="E44" t="inlineStr">
+      <c r="G44" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731088385.7139723.png</t>
         </is>
       </c>
-      <c r="F44" t="inlineStr">
+      <c r="H44" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731088386.104648.png</t>
         </is>
       </c>
-      <c r="G44" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I44" t="n">
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K44" t="n">
         <v>50.07</v>
       </c>
-      <c r="J44" t="n">
+      <c r="L44" t="n">
         <v>50.24</v>
       </c>
-      <c r="K44" t="n">
+      <c r="M44" t="n">
         <v>0.1700000000000017</v>
+      </c>
+      <c r="N44" t="n">
+        <v>0.34</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
-      <c r="B45" t="inlineStr">
+      <c r="B45" t="n">
+        <v>43</v>
+      </c>
+      <c r="C45" t="n">
+        <v>43</v>
+      </c>
+      <c r="D45" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C45" t="inlineStr">
+      <c r="E45" t="inlineStr">
         <is>
           <t>1731088390.1968782</t>
         </is>
       </c>
-      <c r="D45" t="inlineStr">
+      <c r="F45" t="inlineStr">
         <is>
           <t>1731088390.8421469</t>
         </is>
       </c>
-      <c r="E45" t="inlineStr">
+      <c r="G45" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731088390.1968782.png</t>
         </is>
       </c>
-      <c r="F45" t="inlineStr">
+      <c r="H45" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731088390.8421469.png</t>
         </is>
       </c>
-      <c r="G45" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I45" t="n">
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K45" t="n">
         <v>50.25</v>
       </c>
-      <c r="J45" t="n">
+      <c r="L45" t="n">
         <v>50.295</v>
       </c>
-      <c r="K45" t="n">
+      <c r="M45" t="n">
         <v>0.04500000000000171</v>
+      </c>
+      <c r="N45" t="n">
+        <v>0.09</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
-      <c r="B46" t="inlineStr">
+      <c r="B46" t="n">
+        <v>44</v>
+      </c>
+      <c r="C46" t="n">
+        <v>44</v>
+      </c>
+      <c r="D46" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C46" t="inlineStr">
+      <c r="E46" t="inlineStr">
         <is>
           <t>1731088392.8127332</t>
         </is>
       </c>
-      <c r="D46" t="inlineStr">
+      <c r="F46" t="inlineStr">
         <is>
           <t>1731088394.0105126</t>
         </is>
       </c>
-      <c r="E46" t="inlineStr">
+      <c r="G46" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731088392.8127332.png</t>
         </is>
       </c>
-      <c r="F46" t="inlineStr">
+      <c r="H46" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731088394.0105126.png</t>
         </is>
       </c>
-      <c r="G46" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I46" t="n">
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K46" t="n">
         <v>50.25</v>
       </c>
-      <c r="J46" t="n">
+      <c r="L46" t="n">
         <v>50.085</v>
       </c>
-      <c r="K46" t="n">
+      <c r="M46" t="n">
         <v>-0.1649999999999991</v>
+      </c>
+      <c r="N46" t="n">
+        <v>-0.33</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
-      <c r="B47" t="inlineStr">
+      <c r="B47" t="n">
+        <v>45</v>
+      </c>
+      <c r="C47" t="n">
+        <v>45</v>
+      </c>
+      <c r="D47" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C47" t="inlineStr">
+      <c r="E47" t="inlineStr">
         <is>
           <t>1731088395.121297</t>
         </is>
       </c>
-      <c r="D47" t="inlineStr">
+      <c r="F47" t="inlineStr">
         <is>
           <t>1731088395.4870584</t>
         </is>
       </c>
-      <c r="E47" t="inlineStr">
+      <c r="G47" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731088395.121297.png</t>
         </is>
       </c>
-      <c r="F47" t="inlineStr">
+      <c r="H47" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731088395.4870584.png</t>
         </is>
       </c>
-      <c r="G47" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I47" t="n">
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K47" t="n">
         <v>50.035</v>
       </c>
-      <c r="J47" t="n">
+      <c r="L47" t="n">
         <v>50.065</v>
       </c>
-      <c r="K47" t="n">
+      <c r="M47" t="n">
         <v>0.03000000000000114</v>
+      </c>
+      <c r="N47" t="n">
+        <v>0.06</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
-      <c r="B48" t="inlineStr">
+      <c r="B48" t="n">
+        <v>46</v>
+      </c>
+      <c r="C48" t="n">
+        <v>46</v>
+      </c>
+      <c r="D48" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C48" t="inlineStr">
+      <c r="E48" t="inlineStr">
         <is>
           <t>1731088402.4408023</t>
         </is>
       </c>
-      <c r="D48" t="inlineStr">
+      <c r="F48" t="inlineStr">
         <is>
           <t>1731088403.4055357</t>
         </is>
       </c>
-      <c r="E48" t="inlineStr">
+      <c r="G48" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731088402.4408023.png</t>
         </is>
       </c>
-      <c r="F48" t="inlineStr">
+      <c r="H48" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731088403.4055357.png</t>
         </is>
       </c>
-      <c r="G48" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I48" t="n">
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K48" t="n">
         <v>50.045</v>
       </c>
-      <c r="J48" t="n">
+      <c r="L48" t="n">
         <v>50.055</v>
       </c>
-      <c r="K48" t="n">
+      <c r="M48" t="n">
         <v>0.00999999999999801</v>
+      </c>
+      <c r="N48" t="n">
+        <v>0.02</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
-      <c r="B49" t="inlineStr">
+      <c r="B49" t="n">
+        <v>47</v>
+      </c>
+      <c r="C49" t="n">
+        <v>47</v>
+      </c>
+      <c r="D49" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C49" t="inlineStr">
+      <c r="E49" t="inlineStr">
         <is>
           <t>1731088413.7895103</t>
         </is>
       </c>
-      <c r="D49" t="inlineStr">
+      <c r="F49" t="inlineStr">
         <is>
           <t>1731088415.984395</t>
         </is>
       </c>
-      <c r="E49" t="inlineStr">
+      <c r="G49" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731088413.7895103.png</t>
         </is>
       </c>
-      <c r="F49" t="inlineStr">
+      <c r="H49" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731088415.984395.png</t>
         </is>
       </c>
-      <c r="G49" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I49" t="n">
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K49" t="n">
         <v>1399.8</v>
       </c>
-      <c r="J49" t="n">
+      <c r="L49" t="n">
         <v>1394.8</v>
       </c>
-      <c r="K49" t="n">
+      <c r="M49" t="n">
         <v>-5</v>
+      </c>
+      <c r="N49" t="n">
+        <v>-0.36</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
-      <c r="B50" t="inlineStr">
+      <c r="B50" t="n">
+        <v>48</v>
+      </c>
+      <c r="C50" t="n">
+        <v>48</v>
+      </c>
+      <c r="D50" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C50" t="inlineStr">
+      <c r="E50" t="inlineStr">
         <is>
           <t>1731088416.8782578</t>
         </is>
       </c>
-      <c r="D50" t="inlineStr">
+      <c r="F50" t="inlineStr">
         <is>
           <t>1731088417.2981355</t>
         </is>
       </c>
-      <c r="E50" t="inlineStr">
+      <c r="G50" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731088416.8782578.png</t>
         </is>
       </c>
-      <c r="F50" t="inlineStr">
+      <c r="H50" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731088417.2981355.png</t>
         </is>
       </c>
-      <c r="G50" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I50" t="n">
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K50" t="n">
         <v>1393</v>
       </c>
-      <c r="J50" t="n">
+      <c r="L50" t="n">
         <v>1395.8</v>
       </c>
-      <c r="K50" t="n">
+      <c r="M50" t="n">
         <v>2.799999999999955</v>
+      </c>
+      <c r="N50" t="n">
+        <v>0.2</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
-      <c r="B51" t="inlineStr">
+      <c r="B51" t="n">
+        <v>49</v>
+      </c>
+      <c r="C51" t="n">
+        <v>49</v>
+      </c>
+      <c r="D51" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C51" t="inlineStr">
+      <c r="E51" t="inlineStr">
         <is>
           <t>1731088424.2194574</t>
         </is>
       </c>
-      <c r="D51" t="inlineStr">
+      <c r="F51" t="inlineStr">
         <is>
           <t>1731088424.848257</t>
         </is>
       </c>
-      <c r="E51" t="inlineStr">
+      <c r="G51" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731088424.2194574.png</t>
         </is>
       </c>
-      <c r="F51" t="inlineStr">
+      <c r="H51" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731088424.848257.png</t>
         </is>
       </c>
-      <c r="G51" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I51" t="n">
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K51" t="n">
         <v>1397</v>
       </c>
-      <c r="J51" t="n">
+      <c r="L51" t="n">
         <v>1399.6</v>
       </c>
-      <c r="K51" t="n">
+      <c r="M51" t="n">
         <v>2.599999999999909</v>
+      </c>
+      <c r="N51" t="n">
+        <v>0.19</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="B52" t="inlineStr">
+      <c r="B52" t="n">
+        <v>50</v>
+      </c>
+      <c r="C52" t="n">
+        <v>50</v>
+      </c>
+      <c r="D52" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C52" t="inlineStr">
+      <c r="E52" t="inlineStr">
         <is>
           <t>1731088426.3629863</t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr"/>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>./test_images/CHMF1731088426.3629863.png</t>
         </is>
       </c>
       <c r="F52" t="inlineStr"/>
       <c r="G52" t="inlineStr">
         <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I52" t="n">
+          <t>./test_images/CHMF1731088426.3629863.png</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr"/>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K52" t="n">
         <v>1398</v>
       </c>
-      <c r="J52" t="n">
-        <v>1398</v>
-      </c>
-      <c r="K52" t="n">
-        <v>0</v>
+      <c r="L52" t="n">
+        <v>1397.8</v>
+      </c>
+      <c r="M52" t="n">
+        <v>-0.2000000000000455</v>
+      </c>
+      <c r="N52" t="n">
+        <v>-0.01</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
-      <c r="B53" t="inlineStr">
+      <c r="B53" t="n">
+        <v>51</v>
+      </c>
+      <c r="C53" t="n">
+        <v>51</v>
+      </c>
+      <c r="D53" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C53" t="inlineStr">
+      <c r="E53" t="inlineStr">
         <is>
           <t>1731088428.0159097</t>
         </is>
       </c>
-      <c r="D53" t="inlineStr">
+      <c r="F53" t="inlineStr">
         <is>
           <t>1731088428.6850374</t>
         </is>
       </c>
-      <c r="E53" t="inlineStr">
+      <c r="G53" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731088428.0159097.png</t>
         </is>
       </c>
-      <c r="F53" t="inlineStr">
+      <c r="H53" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731088428.6850374.png</t>
         </is>
       </c>
-      <c r="G53" t="inlineStr">
+      <c r="I53" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I53" t="n">
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K53" t="n">
         <v>59.89</v>
       </c>
-      <c r="J53" t="n">
+      <c r="L53" t="n">
         <v>59.83</v>
       </c>
-      <c r="K53" t="n">
+      <c r="M53" t="n">
         <v>0.06000000000000227</v>
+      </c>
+      <c r="N53" t="n">
+        <v>0.1</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
-      <c r="B54" t="inlineStr">
+      <c r="B54" t="n">
+        <v>52</v>
+      </c>
+      <c r="C54" t="n">
+        <v>52</v>
+      </c>
+      <c r="D54" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C54" t="inlineStr">
+      <c r="E54" t="inlineStr">
         <is>
           <t>1731088432.340317</t>
         </is>
       </c>
-      <c r="D54" t="inlineStr">
+      <c r="F54" t="inlineStr">
         <is>
           <t>1731088433.5394926</t>
         </is>
       </c>
-      <c r="E54" t="inlineStr">
+      <c r="G54" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731088432.340317.png</t>
         </is>
       </c>
-      <c r="F54" t="inlineStr">
+      <c r="H54" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731088433.5394926.png</t>
         </is>
       </c>
-      <c r="G54" t="inlineStr">
+      <c r="I54" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I54" t="n">
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K54" t="n">
         <v>59.97</v>
       </c>
-      <c r="J54" t="n">
+      <c r="L54" t="n">
         <v>60.02</v>
       </c>
-      <c r="K54" t="n">
+      <c r="M54" t="n">
         <v>-0.05000000000000426</v>
+      </c>
+      <c r="N54" t="n">
+        <v>-0.08</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
-      <c r="B55" t="inlineStr">
+      <c r="B55" t="n">
+        <v>53</v>
+      </c>
+      <c r="C55" t="n">
+        <v>53</v>
+      </c>
+      <c r="D55" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C55" t="inlineStr">
+      <c r="E55" t="inlineStr">
         <is>
           <t>1731088444.3949437</t>
         </is>
       </c>
-      <c r="D55" t="inlineStr">
+      <c r="F55" t="inlineStr">
         <is>
           <t>1731088445.3454947</t>
         </is>
       </c>
-      <c r="E55" t="inlineStr">
+      <c r="G55" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731088444.3949437.png</t>
         </is>
       </c>
-      <c r="F55" t="inlineStr">
+      <c r="H55" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731088445.3454947.png</t>
         </is>
       </c>
-      <c r="G55" t="inlineStr">
+      <c r="I55" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I55" t="n">
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K55" t="n">
         <v>59.86</v>
       </c>
-      <c r="J55" t="n">
+      <c r="L55" t="n">
         <v>59.9</v>
       </c>
-      <c r="K55" t="n">
+      <c r="M55" t="n">
         <v>-0.03999999999999915</v>
+      </c>
+      <c r="N55" t="n">
+        <v>-0.06999999999999999</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
-      <c r="B56" t="inlineStr">
+      <c r="B56" t="n">
+        <v>54</v>
+      </c>
+      <c r="C56" t="n">
+        <v>54</v>
+      </c>
+      <c r="D56" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C56" t="inlineStr">
+      <c r="E56" t="inlineStr">
         <is>
           <t>1731088457.9137595</t>
         </is>
       </c>
-      <c r="D56" t="inlineStr">
+      <c r="F56" t="inlineStr">
         <is>
           <t>1731088458.9827635</t>
         </is>
       </c>
-      <c r="E56" t="inlineStr">
+      <c r="G56" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731088457.9137595.png</t>
         </is>
       </c>
-      <c r="F56" t="inlineStr">
+      <c r="H56" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731088458.9827635.png</t>
         </is>
       </c>
-      <c r="G56" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I56" t="n">
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K56" t="n">
         <v>99.53</v>
       </c>
-      <c r="J56" t="n">
+      <c r="L56" t="n">
         <v>99.59</v>
       </c>
-      <c r="K56" t="n">
+      <c r="M56" t="n">
         <v>0.06000000000000227</v>
+      </c>
+      <c r="N56" t="n">
+        <v>0.06</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
-      <c r="B57" t="inlineStr">
+      <c r="B57" t="n">
+        <v>55</v>
+      </c>
+      <c r="C57" t="n">
+        <v>55</v>
+      </c>
+      <c r="D57" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C57" t="inlineStr">
+      <c r="E57" t="inlineStr">
         <is>
           <t>1731088469.0232823</t>
         </is>
       </c>
-      <c r="D57" t="inlineStr">
+      <c r="F57" t="inlineStr">
         <is>
           <t>1731088469.2222834</t>
         </is>
       </c>
-      <c r="E57" t="inlineStr">
+      <c r="G57" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731088469.0232823.png</t>
         </is>
       </c>
-      <c r="F57" t="inlineStr">
+      <c r="H57" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731088469.2222834.png</t>
         </is>
       </c>
-      <c r="G57" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I57" t="n">
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K57" t="n">
         <v>100.16</v>
       </c>
-      <c r="J57" t="n">
+      <c r="L57" t="n">
         <v>100.32</v>
       </c>
-      <c r="K57" t="n">
+      <c r="M57" t="n">
         <v>0.1599999999999966</v>
+      </c>
+      <c r="N57" t="n">
+        <v>0.16</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
-      <c r="B58" t="inlineStr">
+      <c r="B58" t="n">
+        <v>56</v>
+      </c>
+      <c r="C58" t="n">
+        <v>56</v>
+      </c>
+      <c r="D58" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C58" t="inlineStr">
+      <c r="E58" t="inlineStr">
         <is>
           <t>1731088469.816322</t>
         </is>
       </c>
-      <c r="D58" t="inlineStr">
+      <c r="F58" t="inlineStr">
         <is>
           <t>1731088470.7832847</t>
         </is>
       </c>
-      <c r="E58" t="inlineStr">
+      <c r="G58" t="inlineStr">
         <is>
           <t>./test_images/SELG1731088469.816322.png</t>
         </is>
       </c>
-      <c r="F58" t="inlineStr">
+      <c r="H58" t="inlineStr">
         <is>
           <t>./test_images/SELG1731088470.7832847.png</t>
         </is>
       </c>
-      <c r="G58" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I58" t="n">
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K58" t="n">
         <v>56.1</v>
       </c>
-      <c r="J58" t="n">
+      <c r="L58" t="n">
         <v>56.14</v>
       </c>
-      <c r="K58" t="n">
+      <c r="M58" t="n">
         <v>0.03999999999999915</v>
+      </c>
+      <c r="N58" t="n">
+        <v>0.06999999999999999</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
-      <c r="B59" t="inlineStr">
+      <c r="B59" t="n">
+        <v>57</v>
+      </c>
+      <c r="C59" t="n">
+        <v>57</v>
+      </c>
+      <c r="D59" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C59" t="inlineStr">
+      <c r="E59" t="inlineStr">
         <is>
           <t>1731088480.9765208</t>
         </is>
       </c>
-      <c r="D59" t="inlineStr">
+      <c r="F59" t="inlineStr">
         <is>
           <t>1731088481.2673602</t>
         </is>
       </c>
-      <c r="E59" t="inlineStr">
+      <c r="G59" t="inlineStr">
         <is>
           <t>./test_images/SELG1731088480.9765208.png</t>
         </is>
       </c>
-      <c r="F59" t="inlineStr">
+      <c r="H59" t="inlineStr">
         <is>
           <t>./test_images/SELG1731088481.2673602.png</t>
         </is>
       </c>
-      <c r="G59" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I59" t="n">
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K59" t="n">
         <v>56.37</v>
       </c>
-      <c r="J59" t="n">
+      <c r="L59" t="n">
         <v>56.43</v>
       </c>
-      <c r="K59" t="n">
+      <c r="M59" t="n">
         <v>0.06000000000000227</v>
+      </c>
+      <c r="N59" t="n">
+        <v>0.11</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
-      <c r="B60" t="inlineStr">
+      <c r="B60" t="n">
+        <v>58</v>
+      </c>
+      <c r="C60" t="n">
+        <v>58</v>
+      </c>
+      <c r="D60" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C60" t="inlineStr">
+      <c r="E60" t="inlineStr">
         <is>
           <t>1731088488.1559868</t>
         </is>
       </c>
-      <c r="D60" t="inlineStr">
+      <c r="F60" t="inlineStr">
         <is>
           <t>1731088488.3984246</t>
         </is>
       </c>
-      <c r="E60" t="inlineStr">
+      <c r="G60" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731088488.1559868.png</t>
         </is>
       </c>
-      <c r="F60" t="inlineStr">
+      <c r="H60" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731088488.3984246.png</t>
         </is>
       </c>
-      <c r="G60" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I60" t="n">
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K60" t="n">
         <v>153.68</v>
       </c>
-      <c r="J60" t="n">
+      <c r="L60" t="n">
         <v>154.12</v>
       </c>
-      <c r="K60" t="n">
+      <c r="M60" t="n">
         <v>0.4399999999999977</v>
+      </c>
+      <c r="N60" t="n">
+        <v>0.29</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
-      <c r="B61" t="inlineStr">
+      <c r="B61" t="n">
+        <v>59</v>
+      </c>
+      <c r="C61" t="n">
+        <v>59</v>
+      </c>
+      <c r="D61" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C61" t="inlineStr">
+      <c r="E61" t="inlineStr">
         <is>
           <t>1731088504.2026577</t>
         </is>
       </c>
-      <c r="D61" t="inlineStr">
+      <c r="F61" t="inlineStr">
         <is>
           <t>1731088504.5459452</t>
         </is>
       </c>
-      <c r="E61" t="inlineStr">
+      <c r="G61" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731088504.2026577.png</t>
         </is>
       </c>
-      <c r="F61" t="inlineStr">
+      <c r="H61" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731088504.5459452.png</t>
         </is>
       </c>
-      <c r="G61" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I61" t="n">
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K61" t="n">
         <v>156.58</v>
       </c>
-      <c r="J61" t="n">
+      <c r="L61" t="n">
         <v>157.22</v>
       </c>
-      <c r="K61" t="n">
+      <c r="M61" t="n">
         <v>0.6399999999999864</v>
+      </c>
+      <c r="N61" t="n">
+        <v>0.41</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
-      <c r="B62" t="inlineStr">
+      <c r="B62" t="n">
+        <v>60</v>
+      </c>
+      <c r="C62" t="n">
+        <v>60</v>
+      </c>
+      <c r="D62" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C62" t="inlineStr">
+      <c r="E62" t="inlineStr">
         <is>
           <t>1731088505.8623624</t>
         </is>
       </c>
-      <c r="D62" t="inlineStr">
+      <c r="F62" t="inlineStr">
         <is>
           <t>1731088506.013061</t>
         </is>
       </c>
-      <c r="E62" t="inlineStr">
+      <c r="G62" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731088505.8623624.png</t>
         </is>
       </c>
-      <c r="F62" t="inlineStr">
+      <c r="H62" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731088506.013061.png</t>
         </is>
       </c>
-      <c r="G62" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I62" t="n">
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K62" t="n">
         <v>156.4</v>
       </c>
-      <c r="J62" t="n">
+      <c r="L62" t="n">
         <v>156.84</v>
       </c>
-      <c r="K62" t="n">
+      <c r="M62" t="n">
         <v>0.4399999999999977</v>
+      </c>
+      <c r="N62" t="n">
+        <v>0.28</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
-      <c r="B63" t="inlineStr">
+      <c r="B63" t="n">
+        <v>61</v>
+      </c>
+      <c r="C63" t="n">
+        <v>61</v>
+      </c>
+      <c r="D63" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C63" t="inlineStr">
+      <c r="E63" t="inlineStr">
         <is>
           <t>1731088506.1164815</t>
         </is>
       </c>
-      <c r="D63" t="inlineStr">
+      <c r="F63" t="inlineStr">
         <is>
           <t>1731088506.2578173</t>
         </is>
       </c>
-      <c r="E63" t="inlineStr">
+      <c r="G63" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731088506.1164815.png</t>
         </is>
       </c>
-      <c r="F63" t="inlineStr">
+      <c r="H63" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731088506.2578173.png</t>
         </is>
       </c>
-      <c r="G63" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I63" t="n">
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K63" t="n">
         <v>156.4</v>
       </c>
-      <c r="J63" t="n">
+      <c r="L63" t="n">
         <v>156.76</v>
       </c>
-      <c r="K63" t="n">
+      <c r="M63" t="n">
         <v>0.3599999999999852</v>
+      </c>
+      <c r="N63" t="n">
+        <v>0.23</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
-      <c r="B64" t="inlineStr">
+      <c r="B64" t="n">
+        <v>62</v>
+      </c>
+      <c r="C64" t="n">
+        <v>62</v>
+      </c>
+      <c r="D64" t="inlineStr">
         <is>
           <t>MRKP</t>
         </is>
       </c>
-      <c r="C64" t="inlineStr">
+      <c r="E64" t="inlineStr">
         <is>
           <t>1731088508.5184617</t>
         </is>
       </c>
-      <c r="D64" t="inlineStr">
+      <c r="F64" t="inlineStr">
         <is>
           <t>1731088509.1925054</t>
         </is>
       </c>
-      <c r="E64" t="inlineStr">
+      <c r="G64" t="inlineStr">
         <is>
           <t>./test_images/MRKP1731088508.5184617.png</t>
         </is>
       </c>
-      <c r="F64" t="inlineStr">
+      <c r="H64" t="inlineStr">
         <is>
           <t>./test_images/MRKP1731088509.1925054.png</t>
         </is>
       </c>
-      <c r="G64" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I64" t="n">
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K64" t="n">
         <v>0.2984</v>
       </c>
-      <c r="J64" t="n">
+      <c r="L64" t="n">
         <v>0.2995</v>
       </c>
-      <c r="K64" t="n">
+      <c r="M64" t="n">
         <v>0.00109999999999999</v>
+      </c>
+      <c r="N64" t="n">
+        <v>0.37</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
-      <c r="B65" t="inlineStr">
+      <c r="B65" t="n">
+        <v>63</v>
+      </c>
+      <c r="C65" t="n">
+        <v>63</v>
+      </c>
+      <c r="D65" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C65" t="inlineStr">
+      <c r="E65" t="inlineStr">
         <is>
           <t>1731088533.4767954</t>
         </is>
       </c>
-      <c r="D65" t="inlineStr">
+      <c r="F65" t="inlineStr">
         <is>
           <t>1731088534.3199656</t>
         </is>
       </c>
-      <c r="E65" t="inlineStr">
+      <c r="G65" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731088533.4767954.png</t>
         </is>
       </c>
-      <c r="F65" t="inlineStr">
+      <c r="H65" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731088534.3199656.png</t>
         </is>
       </c>
-      <c r="G65" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I65" t="n">
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K65" t="n">
         <v>20.483</v>
       </c>
-      <c r="J65" t="n">
+      <c r="L65" t="n">
         <v>20.502</v>
       </c>
-      <c r="K65" t="n">
+      <c r="M65" t="n">
         <v>0.01899999999999835</v>
+      </c>
+      <c r="N65" t="n">
+        <v>0.09</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
-      <c r="B66" t="inlineStr">
+      <c r="B66" t="n">
+        <v>64</v>
+      </c>
+      <c r="C66" t="n">
+        <v>64</v>
+      </c>
+      <c r="D66" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C66" t="inlineStr">
+      <c r="E66" t="inlineStr">
         <is>
           <t>1731088540.1493917</t>
         </is>
       </c>
-      <c r="D66" t="inlineStr">
+      <c r="F66" t="inlineStr">
         <is>
           <t>1731088540.4786787</t>
         </is>
       </c>
-      <c r="E66" t="inlineStr">
+      <c r="G66" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731088540.1493917.png</t>
         </is>
       </c>
-      <c r="F66" t="inlineStr">
+      <c r="H66" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731088540.4786787.png</t>
         </is>
       </c>
-      <c r="G66" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I66" t="n">
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K66" t="n">
         <v>20.494</v>
       </c>
-      <c r="J66" t="n">
+      <c r="L66" t="n">
         <v>20.529</v>
       </c>
-      <c r="K66" t="n">
+      <c r="M66" t="n">
         <v>0.03500000000000014</v>
+      </c>
+      <c r="N66" t="n">
+        <v>0.17</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
-      <c r="B67" t="inlineStr">
+      <c r="B67" t="n">
+        <v>65</v>
+      </c>
+      <c r="C67" t="n">
+        <v>65</v>
+      </c>
+      <c r="D67" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C67" t="inlineStr">
+      <c r="E67" t="inlineStr">
         <is>
           <t>1731088544.8441541</t>
-        </is>
-      </c>
-      <c r="D67" t="inlineStr"/>
-      <c r="E67" t="inlineStr">
-        <is>
-          <t>./test_images/AFKS1731088544.8441541.png</t>
         </is>
       </c>
       <c r="F67" t="inlineStr"/>
       <c r="G67" t="inlineStr">
         <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I67" t="n">
+          <t>./test_images/AFKS1731088544.8441541.png</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr"/>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K67" t="n">
         <v>20.498</v>
       </c>
-      <c r="J67" t="n">
-        <v>20.498</v>
-      </c>
-      <c r="K67" t="n">
-        <v>0</v>
+      <c r="L67" t="n">
+        <v>20.476</v>
+      </c>
+      <c r="M67" t="n">
+        <v>-0.02200000000000202</v>
+      </c>
+      <c r="N67" t="n">
+        <v>-0.11</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
-      <c r="B68" t="inlineStr">
+      <c r="B68" t="n">
+        <v>66</v>
+      </c>
+      <c r="C68" t="n">
+        <v>66</v>
+      </c>
+      <c r="D68" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C68" t="inlineStr">
+      <c r="E68" t="inlineStr">
         <is>
           <t>1731088552.4669147</t>
         </is>
       </c>
-      <c r="D68" t="inlineStr">
+      <c r="F68" t="inlineStr">
         <is>
           <t>1731088552.8876395</t>
         </is>
       </c>
-      <c r="E68" t="inlineStr">
+      <c r="G68" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731088552.4669147.png</t>
         </is>
       </c>
-      <c r="F68" t="inlineStr">
+      <c r="H68" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731088552.8876395.png</t>
         </is>
       </c>
-      <c r="G68" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I68" t="n">
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K68" t="n">
         <v>687.4</v>
       </c>
-      <c r="J68" t="n">
+      <c r="L68" t="n">
         <v>688.85</v>
       </c>
-      <c r="K68" t="n">
+      <c r="M68" t="n">
         <v>1.450000000000045</v>
+      </c>
+      <c r="N68" t="n">
+        <v>0.21</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
-      <c r="B69" t="inlineStr">
+      <c r="B69" t="n">
+        <v>67</v>
+      </c>
+      <c r="C69" t="n">
+        <v>67</v>
+      </c>
+      <c r="D69" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C69" t="inlineStr">
+      <c r="E69" t="inlineStr">
         <is>
           <t>1731088553.7975218</t>
         </is>
       </c>
-      <c r="D69" t="inlineStr">
+      <c r="F69" t="inlineStr">
         <is>
           <t>1731088554.5347297</t>
         </is>
       </c>
-      <c r="E69" t="inlineStr">
+      <c r="G69" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731088553.7975218.png</t>
         </is>
       </c>
-      <c r="F69" t="inlineStr">
+      <c r="H69" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731088554.5347297.png</t>
         </is>
       </c>
-      <c r="G69" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I69" t="n">
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K69" t="n">
         <v>686.6</v>
       </c>
-      <c r="J69" t="n">
+      <c r="L69" t="n">
         <v>686.4</v>
       </c>
-      <c r="K69" t="n">
+      <c r="M69" t="n">
         <v>-0.2000000000000455</v>
+      </c>
+      <c r="N69" t="n">
+        <v>-0.03</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
-      <c r="B70" t="inlineStr">
+      <c r="B70" t="n">
+        <v>68</v>
+      </c>
+      <c r="C70" t="n">
+        <v>68</v>
+      </c>
+      <c r="D70" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C70" t="inlineStr">
+      <c r="E70" t="inlineStr">
         <is>
           <t>1731088554.8048337</t>
         </is>
       </c>
-      <c r="D70" t="inlineStr">
+      <c r="F70" t="inlineStr">
         <is>
           <t>1731088555.713042</t>
         </is>
       </c>
-      <c r="E70" t="inlineStr">
+      <c r="G70" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731088554.8048337.png</t>
         </is>
       </c>
-      <c r="F70" t="inlineStr">
+      <c r="H70" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731088555.713042.png</t>
         </is>
       </c>
-      <c r="G70" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I70" t="n">
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K70" t="n">
         <v>685.6</v>
       </c>
-      <c r="J70" t="n">
+      <c r="L70" t="n">
         <v>685.45</v>
       </c>
-      <c r="K70" t="n">
+      <c r="M70" t="n">
         <v>-0.1499999999999773</v>
+      </c>
+      <c r="N70" t="n">
+        <v>-0.02</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
-      <c r="B71" t="inlineStr">
+      <c r="B71" t="n">
+        <v>69</v>
+      </c>
+      <c r="C71" t="n">
+        <v>69</v>
+      </c>
+      <c r="D71" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C71" t="inlineStr">
+      <c r="E71" t="inlineStr">
         <is>
           <t>1731088565.6148224</t>
         </is>
       </c>
-      <c r="D71" t="inlineStr">
+      <c r="F71" t="inlineStr">
         <is>
           <t>1731088566.3337002</t>
         </is>
       </c>
-      <c r="E71" t="inlineStr">
+      <c r="G71" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731088565.6148224.png</t>
         </is>
       </c>
-      <c r="F71" t="inlineStr">
+      <c r="H71" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731088566.3337002.png</t>
         </is>
       </c>
-      <c r="G71" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I71" t="n">
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K71" t="n">
         <v>153.91</v>
       </c>
-      <c r="J71" t="n">
+      <c r="L71" t="n">
         <v>153.86</v>
       </c>
-      <c r="K71" t="n">
+      <c r="M71" t="n">
         <v>-0.04999999999998295</v>
+      </c>
+      <c r="N71" t="n">
+        <v>-0.03</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
-      <c r="B72" t="inlineStr">
+      <c r="B72" t="n">
+        <v>70</v>
+      </c>
+      <c r="C72" t="n">
+        <v>70</v>
+      </c>
+      <c r="D72" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C72" t="inlineStr">
+      <c r="E72" t="inlineStr">
         <is>
           <t>1731088567.0474348</t>
         </is>
       </c>
-      <c r="D72" t="inlineStr">
+      <c r="F72" t="inlineStr">
         <is>
           <t>1731088567.662357</t>
         </is>
       </c>
-      <c r="E72" t="inlineStr">
+      <c r="G72" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731088567.0474348.png</t>
         </is>
       </c>
-      <c r="F72" t="inlineStr">
+      <c r="H72" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731088567.662357.png</t>
         </is>
       </c>
-      <c r="G72" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I72" t="n">
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K72" t="n">
         <v>153.45</v>
       </c>
-      <c r="J72" t="n">
+      <c r="L72" t="n">
         <v>153.64</v>
       </c>
-      <c r="K72" t="n">
+      <c r="M72" t="n">
         <v>0.1899999999999977</v>
+      </c>
+      <c r="N72" t="n">
+        <v>0.12</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
-      <c r="B73" t="inlineStr">
+      <c r="B73" t="n">
+        <v>71</v>
+      </c>
+      <c r="C73" t="n">
+        <v>71</v>
+      </c>
+      <c r="D73" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C73" t="inlineStr">
+      <c r="E73" t="inlineStr">
         <is>
           <t>1731088583.9668617</t>
         </is>
       </c>
-      <c r="D73" t="inlineStr">
+      <c r="F73" t="inlineStr">
         <is>
           <t>1731088585.4605756</t>
         </is>
       </c>
-      <c r="E73" t="inlineStr">
+      <c r="G73" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731088583.9668617.png</t>
         </is>
       </c>
-      <c r="F73" t="inlineStr">
+      <c r="H73" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731088585.4605756.png</t>
         </is>
       </c>
-      <c r="G73" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I73" t="n">
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K73" t="n">
         <v>156.39</v>
       </c>
-      <c r="J73" t="n">
+      <c r="L73" t="n">
         <v>156.46</v>
       </c>
-      <c r="K73" t="n">
+      <c r="M73" t="n">
         <v>0.0700000000000216</v>
+      </c>
+      <c r="N73" t="n">
+        <v>0.04</v>
       </c>
     </row>
   </sheetData>
@@ -3987,7 +4648,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4011,6 +4672,21 @@
           <t>count</t>
         </is>
       </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>part</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>total_percent</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>average_percent</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -4024,6 +4700,15 @@
       <c r="C2" t="n">
         <v>11</v>
       </c>
+      <c r="D2" t="n">
+        <v>0.2627272727272766</v>
+      </c>
+      <c r="E2" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.09</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -4032,11 +4717,20 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.7700000000000102</v>
+        <v>0.8400000000000318</v>
       </c>
       <c r="C3" t="n">
         <v>5</v>
       </c>
+      <c r="D3" t="n">
+        <v>0.1680000000000064</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.13</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -4045,11 +4739,20 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.2199999999999989</v>
+        <v>0.02000000000001023</v>
       </c>
       <c r="C4" t="n">
         <v>5</v>
       </c>
+      <c r="D4" t="n">
+        <v>0.004000000000002046</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.009999999999999981</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -4063,6 +4766,15 @@
       <c r="C5" t="n">
         <v>5</v>
       </c>
+      <c r="D5" t="n">
+        <v>0.01800000000000068</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -4076,6 +4788,15 @@
       <c r="C6" t="n">
         <v>5</v>
       </c>
+      <c r="D6" t="n">
+        <v>0.2059999999999832</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.07000000000000001</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -4089,6 +4810,15 @@
       <c r="C7" t="n">
         <v>4</v>
       </c>
+      <c r="D7" t="n">
+        <v>0.3500000000000796</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -4097,11 +4827,20 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.3999999999998636</v>
+        <v>0.1999999999998181</v>
       </c>
       <c r="C8" t="n">
         <v>4</v>
       </c>
+      <c r="D8" t="n">
+        <v>0.04999999999995453</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.02000000000000002</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.01</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -4115,6 +4854,15 @@
       <c r="C9" t="n">
         <v>4</v>
       </c>
+      <c r="D9" t="n">
+        <v>0.4699999999999918</v>
+      </c>
+      <c r="E9" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.3</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -4128,6 +4876,15 @@
       <c r="C10" t="n">
         <v>4</v>
       </c>
+      <c r="D10" t="n">
+        <v>-1.5</v>
+      </c>
+      <c r="E10" t="n">
+        <v>-0.09</v>
+      </c>
+      <c r="F10" t="n">
+        <v>-0.02</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -4136,11 +4893,20 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.05399999999999849</v>
+        <v>0.03199999999999648</v>
       </c>
       <c r="C11" t="n">
         <v>3</v>
       </c>
+      <c r="D11" t="n">
+        <v>0.01066666666666549</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -4154,6 +4920,15 @@
       <c r="C12" t="n">
         <v>3</v>
       </c>
+      <c r="D12" t="n">
+        <v>0.3666666666666742</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -4167,6 +4942,15 @@
       <c r="C13" t="n">
         <v>3</v>
       </c>
+      <c r="D13" t="n">
+        <v>0.07000000000001212</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -4180,6 +4964,15 @@
       <c r="C14" t="n">
         <v>3</v>
       </c>
+      <c r="D14" t="n">
+        <v>-0.01000000000000038</v>
+      </c>
+      <c r="E14" t="n">
+        <v>-0.04999999999999999</v>
+      </c>
+      <c r="F14" t="n">
+        <v>-0.02</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -4193,6 +4986,15 @@
       <c r="C15" t="n">
         <v>3</v>
       </c>
+      <c r="D15" t="n">
+        <v>0.002666666666666965</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.06999999999999999</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -4206,6 +5008,15 @@
       <c r="C16" t="n">
         <v>2</v>
       </c>
+      <c r="D16" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -4219,6 +5030,15 @@
       <c r="C17" t="n">
         <v>2</v>
       </c>
+      <c r="D17" t="n">
+        <v>0.05000000000000071</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.09</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -4232,6 +5052,15 @@
       <c r="C18" t="n">
         <v>2</v>
       </c>
+      <c r="D18" t="n">
+        <v>0.1099999999999994</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.11</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -4245,6 +5074,15 @@
       <c r="C19" t="n">
         <v>1</v>
       </c>
+      <c r="D19" t="n">
+        <v>-0.3600000000000136</v>
+      </c>
+      <c r="E19" t="n">
+        <v>-0.22</v>
+      </c>
+      <c r="F19" t="n">
+        <v>-0.22</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -4258,6 +5096,15 @@
       <c r="C20" t="n">
         <v>1</v>
       </c>
+      <c r="D20" t="n">
+        <v>0.00109999999999999</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.37</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -4271,6 +5118,15 @@
       <c r="C21" t="n">
         <v>1</v>
       </c>
+      <c r="D21" t="n">
+        <v>0.1400000000000148</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.06</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -4284,6 +5140,11 @@
       <c r="C22" t="n">
         <v>0</v>
       </c>
+      <c r="D22" t="inlineStr"/>
+      <c r="E22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
